--- a/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_ManagedUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_ManagedUser.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KamanCore\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\ECTEST_Change_branch\Kaman_ECTEST_Sanity\Input_files\Actual_testcases\Kaman\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE12A15-F45D-4FE4-8534-37776F0C4AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EE1C2C-24D3-44FC-91B0-6AD954B31BD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -988,7 +988,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1406,18 +1406,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,18 +1440,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>